--- a/branches/release-candidate/ValueSet-medication-exposure-category-vs.xlsx
+++ b/branches/release-candidate/ValueSet-medication-exposure-category-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T08:46:48+00:00</t>
+    <t>2024-11-19T08:07:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
-    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>
+    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
